--- a/target/classes/excelTestData/excel_TestData.xlsx
+++ b/target/classes/excelTestData/excel_TestData.xlsx
@@ -3,20 +3,35 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E8BF908F-53F8-4414-8B7E-76013FFC44F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sitra\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95406465-89BB-459D-8924-D5474A55C05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9E3F6FE1-189A-4227-AB91-106046329833}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" activeTab="2" xr2:uid="{9E3F6FE1-189A-4227-AB91-106046329833}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginInfo" sheetId="1" r:id="rId1"/>
     <sheet name="DashboardInfo" sheetId="2" r:id="rId2"/>
     <sheet name="AddContactInfo" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:H24"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -501,7 +516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B93044DB-F9C9-4A0D-82C1-CD6D2AB79AE4}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -583,7 +598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51B036B-160B-4EF8-8872-58185B7D613B}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
